--- a/Analysis/Random Algorithm (NAV2)/Results_Analysis.xlsx
+++ b/Analysis/Random Algorithm (NAV2)/Results_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Random Algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Random Algorithm (NAV2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8B0D3-E0FB-4AE5-AC3A-471936F6408C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CB4CA-7F85-4367-B318-280277D93402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{AAF0C678-CC07-48A3-9B8E-72203FF6A7A2}"/>
   </bookViews>
@@ -20,10 +20,6 @@
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$242</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$242</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$242</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$242</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -837,7 +833,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -875,7 +871,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{3F35D34A-1014-446B-8258-D09B388476F3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -933,7 +929,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -1006,7 +1002,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -2220,7 +2216,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5167993" y="1039586"/>
+              <a:off x="6066064" y="1039586"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2298,7 +2294,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5102679" y="4533899"/>
+              <a:off x="6000750" y="4533899"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2629,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79582F0F-BCB2-4AC7-8376-9C6606D0E690}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3091,7 +3087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>43</v>
       </c>
@@ -3105,7 +3101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>42</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>74</v>
       </c>
@@ -3133,7 +3129,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>62</v>
       </c>
@@ -3147,7 +3143,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>75</v>
       </c>
@@ -3161,7 +3157,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3175,7 +3171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>22</v>
       </c>
@@ -3189,7 +3185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>34</v>
       </c>
@@ -3203,7 +3199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>22</v>
       </c>
@@ -3217,7 +3213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>24</v>
       </c>
@@ -3230,8 +3226,16 @@
       <c r="D42" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <f>AVERAGE(B2:B242)</f>
+        <v>3968.0207468879667</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(C2:C242)</f>
+        <v>57.577747113477109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>7</v>
       </c>
@@ -3244,8 +3248,16 @@
       <c r="D43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F43">
+        <f>MEDIAN(B2:B242)</f>
+        <v>3964</v>
+      </c>
+      <c r="G43">
+        <f>MEDIAN(C2:C242)</f>
+        <v>53.275649547576897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>18</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>57</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>32</v>
       </c>
@@ -3287,7 +3299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>37</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>82</v>
       </c>
